--- a/attendance-files/LAB/LAB (F) Attendance Sheet.xlsx
+++ b/attendance-files/LAB/LAB (F) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="181">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>2024PGP011</t>
@@ -1662,7 +1665,9 @@
       <c r="I7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="30"/>
+      <c r="J7" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
@@ -1687,10 +1692,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>9</v>
@@ -1737,10 +1742,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>9</v>
@@ -1787,10 +1792,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>9</v>
@@ -1837,10 +1842,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>9</v>
@@ -1887,10 +1892,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>9</v>
@@ -1937,10 +1942,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>9</v>
@@ -1987,10 +1992,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>9</v>
@@ -2037,10 +2042,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>9</v>
@@ -2087,10 +2092,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>9</v>
@@ -2137,10 +2142,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>9</v>
@@ -2187,10 +2192,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>9</v>
@@ -2237,10 +2242,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>9</v>
@@ -2287,10 +2292,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>9</v>
@@ -2337,10 +2342,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>9</v>
@@ -2387,10 +2392,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>9</v>
@@ -2437,10 +2442,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>9</v>
@@ -2487,10 +2492,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>9</v>
@@ -2537,10 +2542,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>9</v>
@@ -2587,10 +2592,10 @@
         <v>20</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>9</v>
@@ -2637,10 +2642,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>9</v>
@@ -2687,10 +2692,10 @@
         <v>22</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>9</v>
@@ -2737,10 +2742,10 @@
         <v>23</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>9</v>
@@ -2787,10 +2792,10 @@
         <v>24</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>9</v>
@@ -2837,10 +2842,10 @@
         <v>25</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>9</v>
@@ -2887,10 +2892,10 @@
         <v>26</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>9</v>
@@ -2937,10 +2942,10 @@
         <v>27</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D33" s="25" t="s">
         <v>9</v>
@@ -2987,10 +2992,10 @@
         <v>28</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D34" s="25" t="s">
         <v>9</v>
@@ -3037,10 +3042,10 @@
         <v>29</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>9</v>
@@ -3087,10 +3092,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>9</v>
@@ -3137,10 +3142,10 @@
         <v>31</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>9</v>
@@ -3187,10 +3192,10 @@
         <v>32</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>9</v>
@@ -3237,10 +3242,10 @@
         <v>33</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D39" s="25" t="s">
         <v>9</v>
@@ -3287,10 +3292,10 @@
         <v>34</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>9</v>
@@ -3337,10 +3342,10 @@
         <v>35</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D41" s="25" t="s">
         <v>9</v>
@@ -3387,10 +3392,10 @@
         <v>36</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>9</v>
@@ -3437,10 +3442,10 @@
         <v>37</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D43" s="25" t="s">
         <v>9</v>
@@ -3487,10 +3492,10 @@
         <v>38</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>9</v>
@@ -3537,10 +3542,10 @@
         <v>39</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>9</v>
@@ -3587,10 +3592,10 @@
         <v>40</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>9</v>
@@ -3637,10 +3642,10 @@
         <v>41</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>9</v>
@@ -3687,10 +3692,10 @@
         <v>42</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D48" s="25" t="s">
         <v>9</v>
@@ -3737,10 +3742,10 @@
         <v>43</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D49" s="25" t="s">
         <v>9</v>
@@ -3787,10 +3792,10 @@
         <v>44</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>9</v>
@@ -3837,10 +3842,10 @@
         <v>45</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>9</v>
@@ -3887,10 +3892,10 @@
         <v>46</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>9</v>
@@ -3937,10 +3942,10 @@
         <v>47</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D53" s="25" t="s">
         <v>9</v>
@@ -3987,10 +3992,10 @@
         <v>48</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D54" s="25" t="s">
         <v>9</v>
@@ -4037,10 +4042,10 @@
         <v>49</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>9</v>
@@ -4087,10 +4092,10 @@
         <v>50</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>9</v>
@@ -4137,10 +4142,10 @@
         <v>51</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>9</v>
@@ -4187,10 +4192,10 @@
         <v>52</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>9</v>
@@ -4237,10 +4242,10 @@
         <v>53</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>9</v>
@@ -4287,10 +4292,10 @@
         <v>54</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>9</v>
@@ -4337,10 +4342,10 @@
         <v>55</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>9</v>
@@ -4387,10 +4392,10 @@
         <v>56</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>9</v>
@@ -4437,10 +4442,10 @@
         <v>57</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D63" s="25" t="s">
         <v>9</v>
@@ -4487,10 +4492,10 @@
         <v>58</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D64" s="25" t="s">
         <v>9</v>
@@ -4537,10 +4542,10 @@
         <v>59</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D65" s="25" t="s">
         <v>9</v>
@@ -4587,10 +4592,10 @@
         <v>60</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D66" s="25" t="s">
         <v>9</v>
@@ -4637,10 +4642,10 @@
         <v>61</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D67" s="25" t="s">
         <v>9</v>
@@ -4687,10 +4692,10 @@
         <v>62</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>9</v>
@@ -4737,10 +4742,10 @@
         <v>63</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D69" s="25" t="s">
         <v>9</v>
@@ -4787,10 +4792,10 @@
         <v>64</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>9</v>
@@ -4837,10 +4842,10 @@
         <v>65</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>9</v>
@@ -4887,10 +4892,10 @@
         <v>66</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>9</v>
@@ -4937,10 +4942,10 @@
         <v>67</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>9</v>
@@ -4987,10 +4992,10 @@
         <v>68</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D74" s="25" t="s">
         <v>9</v>
@@ -5037,10 +5042,10 @@
         <v>69</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D75" s="25" t="s">
         <v>9</v>
@@ -5087,10 +5092,10 @@
         <v>70</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D76" s="25" t="s">
         <v>9</v>
@@ -5137,10 +5142,10 @@
         <v>71</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D77" s="25" t="s">
         <v>9</v>
@@ -5187,10 +5192,10 @@
         <v>72</v>
       </c>
       <c r="B78" s="32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D78" s="25" t="s">
         <v>9</v>
@@ -5237,10 +5242,10 @@
         <v>73</v>
       </c>
       <c r="B79" s="32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D79" s="25" t="s">
         <v>9</v>
@@ -5287,10 +5292,10 @@
         <v>74</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D80" s="25" t="s">
         <v>9</v>
@@ -5337,10 +5342,10 @@
         <v>75</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D81" s="25" t="s">
         <v>9</v>
@@ -5387,10 +5392,10 @@
         <v>76</v>
       </c>
       <c r="B82" s="32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D82" s="25" t="s">
         <v>9</v>
@@ -5437,10 +5442,10 @@
         <v>77</v>
       </c>
       <c r="B83" s="32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D83" s="25" t="s">
         <v>9</v>
@@ -5487,10 +5492,10 @@
         <v>78</v>
       </c>
       <c r="B84" s="32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D84" s="25" t="s">
         <v>9</v>
@@ -5537,10 +5542,10 @@
         <v>79</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D85" s="25" t="s">
         <v>9</v>
@@ -5587,10 +5592,10 @@
         <v>80</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D86" s="25" t="s">
         <v>9</v>

--- a/attendance-files/LAB/LAB (F) Attendance Sheet.xlsx
+++ b/attendance-files/LAB/LAB (F) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="180">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>2024PGP011</t>
@@ -1650,11 +1647,11 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1666,14 +1663,26 @@
         <v>21</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
       <c r="S7" s="30"/>
@@ -1692,21 +1701,21 @@
         <v>2</v>
       </c>
       <c r="B8" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>20</v>
@@ -1717,13 +1726,27 @@
       <c r="I8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
+      <c r="J8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q8" s="35"/>
       <c r="R8" s="35"/>
       <c r="S8" s="35"/>
@@ -1742,21 +1765,21 @@
         <v>3</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>20</v>
@@ -1767,13 +1790,27 @@
       <c r="I9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
+      <c r="J9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q9" s="35"/>
       <c r="R9" s="35"/>
       <c r="S9" s="35"/>
@@ -1792,21 +1829,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>20</v>
@@ -1817,13 +1854,27 @@
       <c r="I10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
+      <c r="J10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q10" s="35"/>
       <c r="R10" s="35"/>
       <c r="S10" s="35"/>
@@ -1842,21 +1893,21 @@
         <v>5</v>
       </c>
       <c r="B11" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>30</v>
-      </c>
       <c r="D11" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>20</v>
@@ -1867,13 +1918,27 @@
       <c r="I11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
+      <c r="J11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
       <c r="S11" s="35"/>
@@ -1892,21 +1957,21 @@
         <v>6</v>
       </c>
       <c r="B12" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>32</v>
-      </c>
       <c r="D12" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>20</v>
@@ -1917,13 +1982,27 @@
       <c r="I12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="J12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q12" s="35"/>
       <c r="R12" s="35"/>
       <c r="S12" s="35"/>
@@ -1942,21 +2021,21 @@
         <v>7</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>34</v>
-      </c>
       <c r="D13" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>20</v>
@@ -1967,13 +2046,27 @@
       <c r="I13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
+      <c r="J13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
       <c r="S13" s="35"/>
@@ -1992,11 +2085,11 @@
         <v>8</v>
       </c>
       <c r="B14" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>36</v>
-      </c>
       <c r="D14" s="25" t="s">
         <v>9</v>
       </c>
@@ -2006,7 +2099,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>20</v>
@@ -2017,13 +2110,27 @@
       <c r="I14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
+      <c r="J14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
       <c r="S14" s="35"/>
@@ -2042,21 +2149,21 @@
         <v>9</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>38</v>
-      </c>
       <c r="D15" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>20</v>
@@ -2067,13 +2174,27 @@
       <c r="I15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+      <c r="J15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q15" s="35"/>
       <c r="R15" s="35"/>
       <c r="S15" s="35"/>
@@ -2092,21 +2213,21 @@
         <v>10</v>
       </c>
       <c r="B16" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="33" t="s">
-        <v>40</v>
-      </c>
       <c r="D16" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>20</v>
@@ -2117,13 +2238,27 @@
       <c r="I16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
+      <c r="J16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
       <c r="S16" s="35"/>
@@ -2142,21 +2277,21 @@
         <v>11</v>
       </c>
       <c r="B17" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>42</v>
-      </c>
       <c r="D17" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>20</v>
@@ -2167,13 +2302,27 @@
       <c r="I17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
+      <c r="J17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
       <c r="S17" s="35"/>
@@ -2192,21 +2341,21 @@
         <v>12</v>
       </c>
       <c r="B18" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>44</v>
-      </c>
       <c r="D18" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>20</v>
@@ -2217,13 +2366,27 @@
       <c r="I18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="J18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q18" s="35"/>
       <c r="R18" s="35"/>
       <c r="S18" s="35"/>
@@ -2242,21 +2405,21 @@
         <v>13</v>
       </c>
       <c r="B19" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>46</v>
-      </c>
       <c r="D19" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>20</v>
@@ -2267,13 +2430,27 @@
       <c r="I19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
+      <c r="J19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q19" s="35"/>
       <c r="R19" s="35"/>
       <c r="S19" s="35"/>
@@ -2292,21 +2469,21 @@
         <v>14</v>
       </c>
       <c r="B20" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="33" t="s">
-        <v>48</v>
-      </c>
       <c r="D20" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>20</v>
@@ -2317,13 +2494,27 @@
       <c r="I20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
+      <c r="J20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q20" s="35"/>
       <c r="R20" s="35"/>
       <c r="S20" s="35"/>
@@ -2342,21 +2533,21 @@
         <v>15</v>
       </c>
       <c r="B21" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="33" t="s">
-        <v>50</v>
-      </c>
       <c r="D21" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>20</v>
@@ -2367,13 +2558,27 @@
       <c r="I21" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
+      <c r="J21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q21" s="35"/>
       <c r="R21" s="35"/>
       <c r="S21" s="35"/>
@@ -2392,21 +2597,21 @@
         <v>16</v>
       </c>
       <c r="B22" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="33" t="s">
-        <v>52</v>
-      </c>
       <c r="D22" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>20</v>
@@ -2417,13 +2622,27 @@
       <c r="I22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
+      <c r="J22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q22" s="35"/>
       <c r="R22" s="35"/>
       <c r="S22" s="35"/>
@@ -2442,21 +2661,21 @@
         <v>17</v>
       </c>
       <c r="B23" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="33" t="s">
-        <v>54</v>
-      </c>
       <c r="D23" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>20</v>
@@ -2467,13 +2686,27 @@
       <c r="I23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
+      <c r="J23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
       <c r="S23" s="35"/>
@@ -2492,11 +2725,11 @@
         <v>18</v>
       </c>
       <c r="B24" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="33" t="s">
-        <v>56</v>
-      </c>
       <c r="D24" s="25" t="s">
         <v>9</v>
       </c>
@@ -2506,7 +2739,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>20</v>
@@ -2517,13 +2750,27 @@
       <c r="I24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
+      <c r="J24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q24" s="35"/>
       <c r="R24" s="35"/>
       <c r="S24" s="35"/>
@@ -2542,21 +2789,21 @@
         <v>19</v>
       </c>
       <c r="B25" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="33" t="s">
-        <v>58</v>
-      </c>
       <c r="D25" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>20</v>
@@ -2567,13 +2814,27 @@
       <c r="I25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
+      <c r="J25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q25" s="35"/>
       <c r="R25" s="35"/>
       <c r="S25" s="35"/>
@@ -2592,21 +2853,21 @@
         <v>20</v>
       </c>
       <c r="B26" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="33" t="s">
-        <v>60</v>
-      </c>
       <c r="D26" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>20</v>
@@ -2617,13 +2878,27 @@
       <c r="I26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
+      <c r="J26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q26" s="35"/>
       <c r="R26" s="35"/>
       <c r="S26" s="35"/>
@@ -2642,21 +2917,21 @@
         <v>21</v>
       </c>
       <c r="B27" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="33" t="s">
-        <v>62</v>
-      </c>
       <c r="D27" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>20</v>
@@ -2667,13 +2942,27 @@
       <c r="I27" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
+      <c r="J27" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q27" s="35"/>
       <c r="R27" s="35"/>
       <c r="S27" s="35"/>
@@ -2692,21 +2981,21 @@
         <v>22</v>
       </c>
       <c r="B28" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="33" t="s">
-        <v>64</v>
-      </c>
       <c r="D28" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>20</v>
@@ -2717,13 +3006,27 @@
       <c r="I28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
+      <c r="J28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q28" s="35"/>
       <c r="R28" s="35"/>
       <c r="S28" s="35"/>
@@ -2742,21 +3045,21 @@
         <v>23</v>
       </c>
       <c r="B29" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="33" t="s">
-        <v>66</v>
-      </c>
       <c r="D29" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>21</v>
@@ -2767,13 +3070,27 @@
       <c r="I29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
+      <c r="J29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q29" s="35"/>
       <c r="R29" s="35"/>
       <c r="S29" s="35"/>
@@ -2792,21 +3109,21 @@
         <v>24</v>
       </c>
       <c r="B30" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="33" t="s">
-        <v>68</v>
-      </c>
       <c r="D30" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>20</v>
@@ -2817,13 +3134,27 @@
       <c r="I30" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
+      <c r="J30" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q30" s="35"/>
       <c r="R30" s="35"/>
       <c r="S30" s="35"/>
@@ -2842,21 +3173,21 @@
         <v>25</v>
       </c>
       <c r="B31" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="33" t="s">
-        <v>70</v>
-      </c>
       <c r="D31" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>20</v>
@@ -2867,13 +3198,27 @@
       <c r="I31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
+      <c r="J31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q31" s="35"/>
       <c r="R31" s="35"/>
       <c r="S31" s="35"/>
@@ -2892,21 +3237,21 @@
         <v>26</v>
       </c>
       <c r="B32" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="33" t="s">
-        <v>72</v>
-      </c>
       <c r="D32" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>20</v>
@@ -2917,13 +3262,27 @@
       <c r="I32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
+      <c r="J32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q32" s="35"/>
       <c r="R32" s="35"/>
       <c r="S32" s="35"/>
@@ -2942,21 +3301,21 @@
         <v>27</v>
       </c>
       <c r="B33" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="33" t="s">
-        <v>74</v>
-      </c>
       <c r="D33" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>20</v>
@@ -2967,13 +3326,27 @@
       <c r="I33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
+      <c r="J33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q33" s="35"/>
       <c r="R33" s="35"/>
       <c r="S33" s="35"/>
@@ -2992,21 +3365,21 @@
         <v>28</v>
       </c>
       <c r="B34" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="33" t="s">
-        <v>76</v>
-      </c>
       <c r="D34" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>20</v>
@@ -3017,13 +3390,27 @@
       <c r="I34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
+      <c r="J34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q34" s="35"/>
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
@@ -3042,21 +3429,21 @@
         <v>29</v>
       </c>
       <c r="B35" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="33" t="s">
-        <v>78</v>
-      </c>
       <c r="D35" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>20</v>
@@ -3067,13 +3454,27 @@
       <c r="I35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
+      <c r="J35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q35" s="35"/>
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
@@ -3092,21 +3493,21 @@
         <v>30</v>
       </c>
       <c r="B36" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="33" t="s">
-        <v>80</v>
-      </c>
       <c r="D36" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>20</v>
@@ -3117,13 +3518,27 @@
       <c r="I36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
+      <c r="J36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q36" s="35"/>
       <c r="R36" s="35"/>
       <c r="S36" s="35"/>
@@ -3142,11 +3557,11 @@
         <v>31</v>
       </c>
       <c r="B37" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="33" t="s">
-        <v>82</v>
-      </c>
       <c r="D37" s="25" t="s">
         <v>9</v>
       </c>
@@ -3156,7 +3571,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>20</v>
@@ -3167,13 +3582,27 @@
       <c r="I37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
+      <c r="J37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q37" s="35"/>
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
@@ -3192,21 +3621,21 @@
         <v>32</v>
       </c>
       <c r="B38" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="33" t="s">
-        <v>84</v>
-      </c>
       <c r="D38" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>20</v>
@@ -3217,13 +3646,27 @@
       <c r="I38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
+      <c r="J38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q38" s="35"/>
       <c r="R38" s="35"/>
       <c r="S38" s="35"/>
@@ -3242,21 +3685,21 @@
         <v>33</v>
       </c>
       <c r="B39" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="33" t="s">
-        <v>86</v>
-      </c>
       <c r="D39" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>20</v>
@@ -3267,13 +3710,27 @@
       <c r="I39" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
+      <c r="J39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q39" s="35"/>
       <c r="R39" s="35"/>
       <c r="S39" s="35"/>
@@ -3292,21 +3749,21 @@
         <v>34</v>
       </c>
       <c r="B40" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="33" t="s">
-        <v>88</v>
-      </c>
       <c r="D40" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>20</v>
@@ -3317,13 +3774,27 @@
       <c r="I40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
+      <c r="J40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q40" s="35"/>
       <c r="R40" s="35"/>
       <c r="S40" s="35"/>
@@ -3342,21 +3813,21 @@
         <v>35</v>
       </c>
       <c r="B41" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="33" t="s">
-        <v>90</v>
-      </c>
       <c r="D41" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>20</v>
@@ -3367,13 +3838,27 @@
       <c r="I41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
+      <c r="J41" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q41" s="35"/>
       <c r="R41" s="35"/>
       <c r="S41" s="35"/>
@@ -3392,21 +3877,21 @@
         <v>36</v>
       </c>
       <c r="B42" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="33" t="s">
-        <v>92</v>
-      </c>
       <c r="D42" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>20</v>
@@ -3417,13 +3902,27 @@
       <c r="I42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
+      <c r="J42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q42" s="35"/>
       <c r="R42" s="35"/>
       <c r="S42" s="35"/>
@@ -3442,21 +3941,21 @@
         <v>37</v>
       </c>
       <c r="B43" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="33" t="s">
-        <v>94</v>
-      </c>
       <c r="D43" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>20</v>
@@ -3467,13 +3966,27 @@
       <c r="I43" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
+      <c r="J43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q43" s="35"/>
       <c r="R43" s="35"/>
       <c r="S43" s="35"/>
@@ -3492,21 +4005,21 @@
         <v>38</v>
       </c>
       <c r="B44" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="33" t="s">
-        <v>96</v>
-      </c>
       <c r="D44" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>20</v>
@@ -3517,13 +4030,27 @@
       <c r="I44" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
+      <c r="J44" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q44" s="35"/>
       <c r="R44" s="35"/>
       <c r="S44" s="35"/>
@@ -3542,21 +4069,21 @@
         <v>39</v>
       </c>
       <c r="B45" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="33" t="s">
-        <v>98</v>
-      </c>
       <c r="D45" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>20</v>
@@ -3567,13 +4094,27 @@
       <c r="I45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
+      <c r="J45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q45" s="35"/>
       <c r="R45" s="35"/>
       <c r="S45" s="35"/>
@@ -3592,21 +4133,21 @@
         <v>40</v>
       </c>
       <c r="B46" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="33" t="s">
-        <v>100</v>
-      </c>
       <c r="D46" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>20</v>
@@ -3617,13 +4158,27 @@
       <c r="I46" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
+      <c r="J46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q46" s="35"/>
       <c r="R46" s="35"/>
       <c r="S46" s="35"/>
@@ -3642,21 +4197,21 @@
         <v>41</v>
       </c>
       <c r="B47" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="33" t="s">
-        <v>102</v>
-      </c>
       <c r="D47" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>20</v>
@@ -3667,13 +4222,27 @@
       <c r="I47" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
+      <c r="J47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q47" s="35"/>
       <c r="R47" s="35"/>
       <c r="S47" s="35"/>
@@ -3692,21 +4261,21 @@
         <v>42</v>
       </c>
       <c r="B48" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="33" t="s">
-        <v>104</v>
-      </c>
       <c r="D48" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>21</v>
@@ -3717,13 +4286,27 @@
       <c r="I48" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
+      <c r="J48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q48" s="35"/>
       <c r="R48" s="35"/>
       <c r="S48" s="35"/>
@@ -3742,21 +4325,21 @@
         <v>43</v>
       </c>
       <c r="B49" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="33" t="s">
-        <v>106</v>
-      </c>
       <c r="D49" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>21</v>
@@ -3767,13 +4350,27 @@
       <c r="I49" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
+      <c r="J49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q49" s="35"/>
       <c r="R49" s="35"/>
       <c r="S49" s="35"/>
@@ -3792,21 +4389,21 @@
         <v>44</v>
       </c>
       <c r="B50" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="33" t="s">
-        <v>108</v>
-      </c>
       <c r="D50" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>20</v>
@@ -3817,13 +4414,27 @@
       <c r="I50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
+      <c r="J50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q50" s="35"/>
       <c r="R50" s="35"/>
       <c r="S50" s="35"/>
@@ -3842,21 +4453,21 @@
         <v>45</v>
       </c>
       <c r="B51" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="33" t="s">
-        <v>110</v>
-      </c>
       <c r="D51" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>20</v>
@@ -3867,13 +4478,27 @@
       <c r="I51" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
+      <c r="J51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q51" s="35"/>
       <c r="R51" s="35"/>
       <c r="S51" s="35"/>
@@ -3892,21 +4517,21 @@
         <v>46</v>
       </c>
       <c r="B52" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="33" t="s">
-        <v>112</v>
-      </c>
       <c r="D52" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>20</v>
@@ -3917,13 +4542,27 @@
       <c r="I52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
+      <c r="J52" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q52" s="35"/>
       <c r="R52" s="35"/>
       <c r="S52" s="35"/>
@@ -3942,21 +4581,21 @@
         <v>47</v>
       </c>
       <c r="B53" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="33" t="s">
-        <v>114</v>
-      </c>
       <c r="D53" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>20</v>
@@ -3967,13 +4606,27 @@
       <c r="I53" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
+      <c r="J53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O53" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q53" s="35"/>
       <c r="R53" s="35"/>
       <c r="S53" s="35"/>
@@ -3992,21 +4645,21 @@
         <v>48</v>
       </c>
       <c r="B54" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="33" t="s">
-        <v>116</v>
-      </c>
       <c r="D54" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>20</v>
@@ -4017,13 +4670,27 @@
       <c r="I54" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
+      <c r="J54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q54" s="35"/>
       <c r="R54" s="35"/>
       <c r="S54" s="35"/>
@@ -4042,21 +4709,21 @@
         <v>49</v>
       </c>
       <c r="B55" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="33" t="s">
-        <v>118</v>
-      </c>
       <c r="D55" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>20</v>
@@ -4067,13 +4734,27 @@
       <c r="I55" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
+      <c r="J55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q55" s="35"/>
       <c r="R55" s="35"/>
       <c r="S55" s="35"/>
@@ -4092,11 +4773,11 @@
         <v>50</v>
       </c>
       <c r="B56" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="33" t="s">
-        <v>120</v>
-      </c>
       <c r="D56" s="25" t="s">
         <v>9</v>
       </c>
@@ -4106,7 +4787,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>21</v>
@@ -4117,13 +4798,27 @@
       <c r="I56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
+      <c r="J56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q56" s="35"/>
       <c r="R56" s="35"/>
       <c r="S56" s="35"/>
@@ -4142,21 +4837,21 @@
         <v>51</v>
       </c>
       <c r="B57" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="33" t="s">
-        <v>122</v>
-      </c>
       <c r="D57" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G57" s="28" t="s">
         <v>20</v>
@@ -4167,13 +4862,27 @@
       <c r="I57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
+      <c r="J57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q57" s="35"/>
       <c r="R57" s="35"/>
       <c r="S57" s="35"/>
@@ -4192,21 +4901,21 @@
         <v>52</v>
       </c>
       <c r="B58" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="D58" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>20</v>
@@ -4217,13 +4926,27 @@
       <c r="I58" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
+      <c r="J58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q58" s="35"/>
       <c r="R58" s="35"/>
       <c r="S58" s="35"/>
@@ -4242,21 +4965,21 @@
         <v>53</v>
       </c>
       <c r="B59" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="33" t="s">
-        <v>126</v>
-      </c>
       <c r="D59" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>20</v>
@@ -4267,13 +4990,27 @@
       <c r="I59" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
+      <c r="J59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O59" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q59" s="35"/>
       <c r="R59" s="35"/>
       <c r="S59" s="35"/>
@@ -4292,21 +5029,21 @@
         <v>54</v>
       </c>
       <c r="B60" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="33" t="s">
-        <v>128</v>
-      </c>
       <c r="D60" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>20</v>
@@ -4317,13 +5054,27 @@
       <c r="I60" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
+      <c r="J60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O60" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P60" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q60" s="35"/>
       <c r="R60" s="35"/>
       <c r="S60" s="35"/>
@@ -4342,21 +5093,21 @@
         <v>55</v>
       </c>
       <c r="B61" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="33" t="s">
-        <v>130</v>
-      </c>
       <c r="D61" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>20</v>
@@ -4367,13 +5118,27 @@
       <c r="I61" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
+      <c r="J61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P61" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q61" s="35"/>
       <c r="R61" s="35"/>
       <c r="S61" s="35"/>
@@ -4392,21 +5157,21 @@
         <v>56</v>
       </c>
       <c r="B62" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="33" t="s">
-        <v>132</v>
-      </c>
       <c r="D62" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>20</v>
@@ -4417,13 +5182,27 @@
       <c r="I62" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
+      <c r="J62" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q62" s="35"/>
       <c r="R62" s="35"/>
       <c r="S62" s="35"/>
@@ -4442,21 +5221,21 @@
         <v>57</v>
       </c>
       <c r="B63" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="C63" s="33" t="s">
-        <v>134</v>
-      </c>
       <c r="D63" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>20</v>
@@ -4467,13 +5246,27 @@
       <c r="I63" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
+      <c r="J63" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q63" s="35"/>
       <c r="R63" s="35"/>
       <c r="S63" s="35"/>
@@ -4492,21 +5285,21 @@
         <v>58</v>
       </c>
       <c r="B64" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="33" t="s">
-        <v>136</v>
-      </c>
       <c r="D64" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>20</v>
@@ -4517,13 +5310,27 @@
       <c r="I64" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
+      <c r="J64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P64" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q64" s="35"/>
       <c r="R64" s="35"/>
       <c r="S64" s="35"/>
@@ -4542,21 +5349,21 @@
         <v>59</v>
       </c>
       <c r="B65" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="33" t="s">
-        <v>138</v>
-      </c>
       <c r="D65" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>20</v>
@@ -4567,13 +5374,27 @@
       <c r="I65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
+      <c r="J65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O65" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P65" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q65" s="35"/>
       <c r="R65" s="35"/>
       <c r="S65" s="35"/>
@@ -4592,21 +5413,21 @@
         <v>60</v>
       </c>
       <c r="B66" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C66" s="33" t="s">
-        <v>140</v>
-      </c>
       <c r="D66" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>20</v>
@@ -4617,13 +5438,27 @@
       <c r="I66" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
+      <c r="J66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q66" s="35"/>
       <c r="R66" s="35"/>
       <c r="S66" s="35"/>
@@ -4642,21 +5477,21 @@
         <v>61</v>
       </c>
       <c r="B67" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="33" t="s">
-        <v>142</v>
-      </c>
       <c r="D67" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G67" s="28" t="s">
         <v>20</v>
@@ -4667,13 +5502,27 @@
       <c r="I67" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
+      <c r="J67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q67" s="35"/>
       <c r="R67" s="35"/>
       <c r="S67" s="35"/>
@@ -4692,11 +5541,11 @@
         <v>62</v>
       </c>
       <c r="B68" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="33" t="s">
-        <v>144</v>
-      </c>
       <c r="D68" s="25" t="s">
         <v>9</v>
       </c>
@@ -4706,7 +5555,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>20</v>
@@ -4717,13 +5566,27 @@
       <c r="I68" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
+      <c r="J68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q68" s="35"/>
       <c r="R68" s="35"/>
       <c r="S68" s="35"/>
@@ -4742,21 +5605,21 @@
         <v>63</v>
       </c>
       <c r="B69" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="33" t="s">
-        <v>146</v>
-      </c>
       <c r="D69" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>20</v>
@@ -4767,13 +5630,27 @@
       <c r="I69" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
+      <c r="J69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q69" s="35"/>
       <c r="R69" s="35"/>
       <c r="S69" s="35"/>
@@ -4792,21 +5669,21 @@
         <v>64</v>
       </c>
       <c r="B70" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C70" s="33" t="s">
-        <v>148</v>
-      </c>
       <c r="D70" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>20</v>
@@ -4817,13 +5694,27 @@
       <c r="I70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
+      <c r="J70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q70" s="35"/>
       <c r="R70" s="35"/>
       <c r="S70" s="35"/>
@@ -4842,21 +5733,21 @@
         <v>65</v>
       </c>
       <c r="B71" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="C71" s="33" t="s">
-        <v>150</v>
-      </c>
       <c r="D71" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>20</v>
@@ -4867,13 +5758,27 @@
       <c r="I71" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
+      <c r="J71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O71" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q71" s="35"/>
       <c r="R71" s="35"/>
       <c r="S71" s="35"/>
@@ -4892,21 +5797,21 @@
         <v>66</v>
       </c>
       <c r="B72" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C72" s="33" t="s">
-        <v>152</v>
-      </c>
       <c r="D72" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>20</v>
@@ -4917,13 +5822,27 @@
       <c r="I72" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
+      <c r="J72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M72" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O72" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q72" s="35"/>
       <c r="R72" s="35"/>
       <c r="S72" s="35"/>
@@ -4942,21 +5861,21 @@
         <v>67</v>
       </c>
       <c r="B73" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="C73" s="33" t="s">
-        <v>154</v>
-      </c>
       <c r="D73" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>20</v>
@@ -4967,13 +5886,27 @@
       <c r="I73" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
+      <c r="J73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N73" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q73" s="35"/>
       <c r="R73" s="35"/>
       <c r="S73" s="35"/>
@@ -4992,21 +5925,21 @@
         <v>68</v>
       </c>
       <c r="B74" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C74" s="33" t="s">
-        <v>156</v>
-      </c>
       <c r="D74" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G74" s="28" t="s">
         <v>20</v>
@@ -5017,13 +5950,27 @@
       <c r="I74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
+      <c r="J74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O74" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P74" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q74" s="35"/>
       <c r="R74" s="35"/>
       <c r="S74" s="35"/>
@@ -5042,17 +5989,17 @@
         <v>69</v>
       </c>
       <c r="B75" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C75" s="33" t="s">
-        <v>158</v>
-      </c>
       <c r="D75" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
@@ -5067,13 +6014,27 @@
       <c r="I75" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="35"/>
-      <c r="N75" s="35"/>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
+      <c r="J75" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L75" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O75" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P75" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q75" s="35"/>
       <c r="R75" s="35"/>
       <c r="S75" s="35"/>
@@ -5092,21 +6053,21 @@
         <v>70</v>
       </c>
       <c r="B76" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C76" s="33" t="s">
-        <v>160</v>
-      </c>
       <c r="D76" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>20</v>
@@ -5117,13 +6078,27 @@
       <c r="I76" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="35"/>
-      <c r="N76" s="35"/>
-      <c r="O76" s="35"/>
-      <c r="P76" s="35"/>
+      <c r="J76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q76" s="35"/>
       <c r="R76" s="35"/>
       <c r="S76" s="35"/>
@@ -5142,21 +6117,21 @@
         <v>71</v>
       </c>
       <c r="B77" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="C77" s="33" t="s">
-        <v>162</v>
-      </c>
       <c r="D77" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E77" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>20</v>
@@ -5167,13 +6142,27 @@
       <c r="I77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="35"/>
-      <c r="N77" s="35"/>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
+      <c r="J77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O77" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P77" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q77" s="35"/>
       <c r="R77" s="35"/>
       <c r="S77" s="35"/>
@@ -5192,21 +6181,21 @@
         <v>72</v>
       </c>
       <c r="B78" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="C78" s="33" t="s">
-        <v>164</v>
-      </c>
       <c r="D78" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>20</v>
@@ -5217,13 +6206,27 @@
       <c r="I78" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J78" s="35"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="35"/>
-      <c r="N78" s="35"/>
-      <c r="O78" s="35"/>
-      <c r="P78" s="35"/>
+      <c r="J78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N78" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O78" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P78" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q78" s="35"/>
       <c r="R78" s="35"/>
       <c r="S78" s="35"/>
@@ -5242,11 +6245,11 @@
         <v>73</v>
       </c>
       <c r="B79" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C79" s="33" t="s">
-        <v>166</v>
-      </c>
       <c r="D79" s="25" t="s">
         <v>9</v>
       </c>
@@ -5256,7 +6259,7 @@
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G79" s="28" t="s">
         <v>21</v>
@@ -5267,13 +6270,27 @@
       <c r="I79" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J79" s="35"/>
-      <c r="K79" s="35"/>
-      <c r="L79" s="35"/>
-      <c r="M79" s="35"/>
-      <c r="N79" s="35"/>
-      <c r="O79" s="35"/>
-      <c r="P79" s="35"/>
+      <c r="J79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O79" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P79" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q79" s="35"/>
       <c r="R79" s="35"/>
       <c r="S79" s="35"/>
@@ -5292,21 +6309,21 @@
         <v>74</v>
       </c>
       <c r="B80" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="C80" s="33" t="s">
-        <v>168</v>
-      </c>
       <c r="D80" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G80" s="28" t="s">
         <v>20</v>
@@ -5317,13 +6334,27 @@
       <c r="I80" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J80" s="35"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="35"/>
-      <c r="M80" s="35"/>
-      <c r="N80" s="35"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="35"/>
+      <c r="J80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N80" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O80" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P80" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q80" s="35"/>
       <c r="R80" s="35"/>
       <c r="S80" s="35"/>
@@ -5342,11 +6373,11 @@
         <v>75</v>
       </c>
       <c r="B81" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="C81" s="33" t="s">
-        <v>170</v>
-      </c>
       <c r="D81" s="25" t="s">
         <v>9</v>
       </c>
@@ -5356,7 +6387,7 @@
       </c>
       <c r="F81" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G81" s="28" t="s">
         <v>20</v>
@@ -5367,13 +6398,27 @@
       <c r="I81" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J81" s="35"/>
-      <c r="K81" s="35"/>
-      <c r="L81" s="35"/>
-      <c r="M81" s="35"/>
-      <c r="N81" s="35"/>
-      <c r="O81" s="35"/>
-      <c r="P81" s="35"/>
+      <c r="J81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O81" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P81" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q81" s="35"/>
       <c r="R81" s="35"/>
       <c r="S81" s="35"/>
@@ -5392,21 +6437,21 @@
         <v>76</v>
       </c>
       <c r="B82" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="C82" s="33" t="s">
-        <v>172</v>
-      </c>
       <c r="D82" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E82" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F82" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G82" s="28" t="s">
         <v>20</v>
@@ -5417,13 +6462,27 @@
       <c r="I82" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J82" s="35"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="35"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="35"/>
+      <c r="J82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L82" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M82" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O82" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P82" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q82" s="35"/>
       <c r="R82" s="35"/>
       <c r="S82" s="35"/>
@@ -5442,21 +6501,21 @@
         <v>77</v>
       </c>
       <c r="B83" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="C83" s="33" t="s">
-        <v>174</v>
-      </c>
       <c r="D83" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E83" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F83" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G83" s="28" t="s">
         <v>20</v>
@@ -5467,13 +6526,27 @@
       <c r="I83" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J83" s="35"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="35"/>
-      <c r="M83" s="35"/>
-      <c r="N83" s="35"/>
-      <c r="O83" s="35"/>
-      <c r="P83" s="35"/>
+      <c r="J83" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K83" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L83" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M83" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N83" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O83" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P83" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q83" s="35"/>
       <c r="R83" s="35"/>
       <c r="S83" s="35"/>
@@ -5492,21 +6565,21 @@
         <v>78</v>
       </c>
       <c r="B84" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="C84" s="33" t="s">
-        <v>176</v>
-      </c>
       <c r="D84" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G84" s="28" t="s">
         <v>20</v>
@@ -5517,13 +6590,27 @@
       <c r="I84" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J84" s="35"/>
-      <c r="K84" s="35"/>
-      <c r="L84" s="35"/>
-      <c r="M84" s="35"/>
-      <c r="N84" s="35"/>
-      <c r="O84" s="35"/>
-      <c r="P84" s="35"/>
+      <c r="J84" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K84" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L84" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M84" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N84" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O84" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P84" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q84" s="35"/>
       <c r="R84" s="35"/>
       <c r="S84" s="35"/>
@@ -5542,21 +6629,21 @@
         <v>79</v>
       </c>
       <c r="B85" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="C85" s="33" t="s">
-        <v>178</v>
-      </c>
       <c r="D85" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E85" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F85" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G85" s="28" t="s">
         <v>20</v>
@@ -5567,13 +6654,27 @@
       <c r="I85" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="35"/>
-      <c r="N85" s="35"/>
-      <c r="O85" s="35"/>
-      <c r="P85" s="35"/>
+      <c r="J85" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K85" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L85" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M85" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N85" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O85" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P85" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Q85" s="35"/>
       <c r="R85" s="35"/>
       <c r="S85" s="35"/>
@@ -5592,21 +6693,21 @@
         <v>80</v>
       </c>
       <c r="B86" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="C86" s="33" t="s">
-        <v>180</v>
-      </c>
       <c r="D86" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E86" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F86" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G86" s="28" t="s">
         <v>20</v>
@@ -5617,13 +6718,27 @@
       <c r="I86" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="35"/>
-      <c r="N86" s="35"/>
-      <c r="O86" s="35"/>
-      <c r="P86" s="35"/>
+      <c r="J86" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K86" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L86" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M86" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N86" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O86" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P86" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q86" s="35"/>
       <c r="R86" s="35"/>
       <c r="S86" s="35"/>
